--- a/Final excel files/PBLH_Yearly_average.xlsx
+++ b/Final excel files/PBLH_Yearly_average.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/ch7170310_iitd_ac_in/Documents/Courses/Sem8/MTP CLD880/Nasa satellite data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_F25DC773A252ABDACC1048BC81D86EA65ADE58E7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE9D6BCB-2030-4B98-B893-65347593C89F}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_F25DC773A252ABDACC1048BC81D86EA65ADE58E7" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{76F739BC-64AE-47EF-A350-099FAF0E58A3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
     <sheet name="Feburary" sheetId="2" r:id="rId2"/>
     <sheet name="March" sheetId="3" r:id="rId3"/>
     <sheet name="April" sheetId="4" r:id="rId4"/>
+    <sheet name="May" sheetId="5" r:id="rId5"/>
+    <sheet name="June" sheetId="6" r:id="rId6"/>
+    <sheet name="July" sheetId="7" r:id="rId7"/>
+    <sheet name="August" sheetId="8" r:id="rId8"/>
+    <sheet name="September" sheetId="9" r:id="rId9"/>
+    <sheet name="October" sheetId="10" r:id="rId10"/>
+    <sheet name="November" sheetId="11" r:id="rId11"/>
+    <sheet name="December" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +44,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="5">
   <si>
     <t>Time</t>
   </si>
@@ -89,10 +119,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +412,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -396,7 +426,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="B3">
@@ -404,7 +434,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>0.375</v>
       </c>
       <c r="B4">
@@ -412,7 +442,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>0.41666666666666702</v>
       </c>
       <c r="B5">
@@ -420,7 +450,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>0.45833333333333298</v>
       </c>
       <c r="B6">
@@ -428,7 +458,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>0.5</v>
       </c>
       <c r="B7">
@@ -436,7 +466,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>0.54166666666666596</v>
       </c>
       <c r="B8">
@@ -444,7 +474,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>0.58333333333333304</v>
       </c>
       <c r="B9">
@@ -452,7 +482,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>0.625</v>
       </c>
       <c r="B10">
@@ -460,7 +490,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>0.66666666666666596</v>
       </c>
       <c r="B11">
@@ -468,7 +498,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>0.70833333333333304</v>
       </c>
       <c r="B12">
@@ -483,26 +513,582 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D9932C-C1EB-4485-912B-066E4510A2B8}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3">
+        <v>84.599214369250703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B4">
+        <v>82.123040722262402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5">
+        <v>288.76795565697398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6">
+        <v>1239.89534144247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>1859.50631221647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8">
+        <v>2130.3161187941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9">
+        <v>2270.9001740486301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>2308.89526367187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11">
+        <v>2146.6534896358298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12">
+        <v>1308.4108965473699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298F9DA2-6D2D-4F26-BD8C-384E3A7AB3B4}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3">
+        <v>95.083822886148894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B4">
+        <v>97.743133417765094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5">
+        <v>163.46475194295201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6">
+        <v>733.06512807210197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>1273.92139282226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8">
+        <v>1515.6276997883999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9">
+        <v>1642.1655822753801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>1671.59523518879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11">
+        <v>1467.4961547851501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12">
+        <v>782.88214035034002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA09B9FE-28A3-412A-AFF4-1075598341BA}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3">
+        <v>121.70069614533401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B4">
+        <v>101.546560595112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5">
+        <v>177.61737897319099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6">
+        <v>498.34172648768202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>882.29133064515997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8">
+        <v>1130.6965469852501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9">
+        <v>1284.9445859847499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>1363.6397961031901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11">
+        <v>1220.54877102759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12">
+        <v>665.00342633647199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FAA9AB-A2D8-47B5-8D18-C4D519704486}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3">
+        <v>111.925139328528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B4">
+        <v>140.963851402545</v>
+      </c>
+      <c r="E4">
+        <v>121.70069614533401</v>
+      </c>
+      <c r="F4">
+        <v>101.546560595112</v>
+      </c>
+      <c r="G4">
+        <v>177.61737897319099</v>
+      </c>
+      <c r="H4">
+        <v>498.34172648768202</v>
+      </c>
+      <c r="I4">
+        <v>882.29133064515997</v>
+      </c>
+      <c r="J4">
+        <v>1130.6965469852501</v>
+      </c>
+      <c r="K4">
+        <v>1284.9445859847499</v>
+      </c>
+      <c r="L4">
+        <v>1363.6397961031901</v>
+      </c>
+      <c r="M4">
+        <v>1220.54877102759</v>
+      </c>
+      <c r="N4">
+        <v>665.00342633647199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5">
+        <v>388.72362228919701</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5:E14">TRANSPOSE(E4:N4)</f>
+        <v>121.70069614533401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6">
+        <v>961.78973388671704</v>
+      </c>
+      <c r="E6">
+        <v>101.546560595112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>1282.7611441776601</v>
+      </c>
+      <c r="E7">
+        <v>177.61737897319099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8">
+        <v>1492.20998619342</v>
+      </c>
+      <c r="E8">
+        <v>498.34172648768202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9">
+        <v>1627.1542253165301</v>
+      </c>
+      <c r="E9">
+        <v>882.29133064515997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>1701.58062112742</v>
+      </c>
+      <c r="E10">
+        <v>1130.6965469852501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11">
+        <v>1633.1833853886001</v>
+      </c>
+      <c r="E11">
+        <v>1284.9445859847499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12">
+        <v>1085.9172889446299</v>
+      </c>
+      <c r="E12">
+        <v>1363.6397961031901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1220.54877102759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>665.00342633647199</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A5A022-E171-413D-8B44-BF0EDE90C20C}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3">
+        <v>117.255453540432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B4">
+        <v>233.54292986469801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5">
+        <v>864.33425509544895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6">
+        <v>1461.6197135679099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>1797.7712481098699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8">
+        <v>2049.9361139112798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9">
+        <v>2216.8519562751899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>2308.63944761214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11">
+        <v>2253.43155399445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12">
+        <v>1862.2965127268101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -511,17 +1097,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D9EC8A-4C90-4563-A8DD-E9E316F87811}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -532,7 +1118,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="B3">
@@ -540,7 +1126,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>0.375</v>
       </c>
       <c r="B4">
@@ -548,7 +1134,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>0.41666666666666702</v>
       </c>
       <c r="B5">
@@ -556,7 +1142,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>0.45833333333333298</v>
       </c>
       <c r="B6">
@@ -564,7 +1150,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>0.5</v>
       </c>
       <c r="B7">
@@ -572,7 +1158,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>0.54166666666666596</v>
       </c>
       <c r="B8">
@@ -580,7 +1166,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>0.58333333333333304</v>
       </c>
       <c r="B9">
@@ -588,7 +1174,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>0.625</v>
       </c>
       <c r="B10">
@@ -596,7 +1182,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>0.66666666666666596</v>
       </c>
       <c r="B11">
@@ -604,7 +1190,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>0.70833333333333304</v>
       </c>
       <c r="B12">
@@ -617,4 +1203,519 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E1D3E7-87B7-4B5D-BB0F-1E30DA47CAE0}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3">
+        <v>245.76668868526301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B4">
+        <v>927.24600908832997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5">
+        <v>1740.1198120117101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6">
+        <v>2315.9367951423801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>2876.1022555443501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8">
+        <v>3204.3662503150099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9">
+        <v>3392.6861966040801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>3430.73093340473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11">
+        <v>3409.4943010883899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12">
+        <v>3271.1673367407898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B036A4-D35A-4302-97B6-7D9557C2F602}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3">
+        <v>735.17184448242006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B4">
+        <v>1448.9906555175701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5">
+        <v>1892.7331685383999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6">
+        <v>2203.8098510742102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>2440.8048380533801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8">
+        <v>2632.1150634765499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9">
+        <v>2790.6551717122302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>2861.28190917968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11">
+        <v>2870.38951009114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12">
+        <v>2801.53284301757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF57B83-5E6A-4183-9AC9-EEE1C5E23061}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3">
+        <v>727.69943237304597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B4">
+        <v>1189.68453881048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5">
+        <v>1461.5312755953801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6">
+        <v>1648.25445950415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>1785.1185263356799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8">
+        <v>1900.75467214276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9">
+        <v>1997.6738438760001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>2044.5199722782199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11">
+        <v>2039.05960575226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12">
+        <v>1931.85686862083</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A292FBEC-F5D3-46BD-B31D-CCF0CB8813B1}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3">
+        <v>439.61977214197901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B4">
+        <v>731.53263953424198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5">
+        <v>986.18643976026794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6">
+        <v>1171.32256686302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>1298.6854208669299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8">
+        <v>1382.1125114194699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9">
+        <v>1417.86998330392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>1396.0080960181399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11">
+        <v>1342.19601341985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12">
+        <v>1217.4807079684299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F00CCCE-EBD5-4AA6-8C97-6E76999E5130}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B3">
+        <v>154.37749481201101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B4">
+        <v>414.99748280842999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B5">
+        <v>1044.58845214843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B6">
+        <v>1411.73506062825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>1604.9036458333201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B8">
+        <v>1725.6161376953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B9">
+        <v>1796.55417887369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>1795.36802164713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B11">
+        <v>1712.33151652017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B12">
+        <v>1386.1472290039001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>